--- a/eureca_ubem/Input/materials_and_construction_test.xlsx
+++ b/eureca_ubem/Input/materials_and_construction_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratenr15640\Desktop\EUReCA-building\eureca_building\example_scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratenr82256\Desktop\eureca-ubem\eureca_ubem\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35A1E51-140C-41A5-ABFC-69826605F6E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA754F-F9D7-4913-A623-591366E0DAC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="228" windowWidth="17988" windowHeight="10440" tabRatio="823" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="225" windowWidth="17985" windowHeight="10440" tabRatio="823" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Envelopes" sheetId="2" r:id="rId1"/>
@@ -27,15 +27,48 @@
     <definedName name="Windows" localSheetId="4">Windows!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F9297628-9F91-4632-8C6E-54E4875A1D09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Very heavy
+Heavy
+Medium
+Light
+Very light</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Prataviera Enrico</author>
@@ -71,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -413,6 +446,69 @@
   </si>
   <si>
     <t>shading_coef_int [-]</t>
+  </si>
+  <si>
+    <t>U-value [W/(m2 K)]</t>
+  </si>
+  <si>
+    <t>Weight class</t>
+  </si>
+  <si>
+    <t>tilted roof with cavity between rafters</t>
+  </si>
+  <si>
+    <t>timber frame</t>
+  </si>
+  <si>
+    <t>natural stone floor on soil</t>
+  </si>
+  <si>
+    <t>wooden beam ceiling</t>
+  </si>
+  <si>
+    <t>tilted roof with clay/straw filling between rafters</t>
+  </si>
+  <si>
+    <t>brickwork</t>
+  </si>
+  <si>
+    <t>wooden beam ceiling with visible beams</t>
+  </si>
+  <si>
+    <t>masonry of natural stones or bricks</t>
+  </si>
+  <si>
+    <t>vault ceiling</t>
+  </si>
+  <si>
+    <t>tilted roof with wood fiberboard planking</t>
+  </si>
+  <si>
+    <t>concrete ceiling with steel beams and wooden flooring</t>
+  </si>
+  <si>
+    <t>brickwork, two layers</t>
+  </si>
+  <si>
+    <t>tilted roof with masonry between rafters</t>
+  </si>
+  <si>
+    <t>concrete ceiling with wooden flooring</t>
+  </si>
+  <si>
+    <t>Mansory</t>
+  </si>
+  <si>
+    <t>cavity blocks ceiling</t>
+  </si>
+  <si>
+    <t>concrete ceiling</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Heavy</t>
   </si>
 </sst>
 </file>
@@ -501,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -578,9 +674,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -685,7 +784,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -984,23 +1083,23 @@
   <dimension ref="A1:AMK14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="12.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="7" customWidth="1"/>
-    <col min="9" max="1014" width="8.5546875" style="7"/>
-    <col min="1015" max="1024" width="9.109375" style="7" customWidth="1"/>
-    <col min="1025" max="16384" width="8.5546875" style="7"/>
+    <col min="1" max="1" width="16.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="1014" width="8.5703125" style="7"/>
+    <col min="1015" max="1024" width="9.140625" style="7" customWidth="1"/>
+    <col min="1025" max="16384" width="8.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1138,7 @@
       <c r="AMJ1" s="7"/>
       <c r="AMK1" s="7"/>
     </row>
-    <row r="2" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>3</v>
       </c>
@@ -1059,7 +1158,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H2" s="8">
         <v>18</v>
@@ -1078,7 +1177,7 @@
       <c r="AMJ2" s="7"/>
       <c r="AMK2" s="7"/>
     </row>
-    <row r="3" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>6</v>
       </c>
@@ -1098,10 +1197,10 @@
         <v>38</v>
       </c>
       <c r="G3" s="8">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H3" s="8">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I3" s="8">
         <v>3</v>
@@ -1117,7 +1216,7 @@
       <c r="AMJ3" s="7"/>
       <c r="AMK3" s="7"/>
     </row>
-    <row r="4" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>9</v>
       </c>
@@ -1137,7 +1236,7 @@
         <v>58</v>
       </c>
       <c r="G4" s="8">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H4" s="8">
         <v>59</v>
@@ -1156,7 +1255,7 @@
       <c r="AMJ4" s="7"/>
       <c r="AMK4" s="7"/>
     </row>
-    <row r="5" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1177,7 +1276,7 @@
       <c r="AMJ5" s="7"/>
       <c r="AMK5" s="7"/>
     </row>
-    <row r="6" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AMA6" s="7"/>
       <c r="AMB6" s="7"/>
       <c r="AMC6" s="7"/>
@@ -1189,7 +1288,7 @@
       <c r="AMI6" s="7"/>
       <c r="AMJ6" s="7"/>
     </row>
-    <row r="7" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AMA7" s="7"/>
       <c r="AMB7" s="7"/>
       <c r="AMC7" s="7"/>
@@ -1201,7 +1300,7 @@
       <c r="AMI7" s="7"/>
       <c r="AMJ7" s="7"/>
     </row>
-    <row r="8" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AMA8" s="7"/>
       <c r="AMB8" s="7"/>
       <c r="AMC8" s="7"/>
@@ -1213,7 +1312,7 @@
       <c r="AMI8" s="7"/>
       <c r="AMJ8" s="7"/>
     </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1223,7 +1322,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1233,16 +1332,16 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
     </row>
   </sheetData>
@@ -1260,12 +1359,12 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1281,7 +1380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1289,7 +1388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1297,7 +1396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1305,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1320,26 +1419,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMI33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="6" customWidth="1"/>
-    <col min="4" max="13" width="13.33203125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="6" customWidth="1"/>
-    <col min="15" max="1023" width="9.109375" style="6"/>
-    <col min="1024" max="16384" width="9.109375" style="7"/>
+    <col min="3" max="5" width="21.140625" style="6" customWidth="1"/>
+    <col min="6" max="15" width="13.28515625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
+    <col min="17" max="1025" width="9.140625" style="6"/>
+    <col min="1026" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1349,41 +1448,47 @@
       <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>13</v>
       </c>
@@ -1393,32 +1498,34 @@
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>19</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>18</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>17</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>16</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>4</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>14</v>
       </c>
@@ -1428,30 +1535,32 @@
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>23</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>22</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>21</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>4</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -1461,26 +1570,28 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>24</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -1490,28 +1601,30 @@
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>7</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>8</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>12</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>17</v>
       </c>
@@ -1521,32 +1634,34 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>12</v>
-      </c>
-      <c r="F6" s="1">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1">
-        <v>27</v>
       </c>
       <c r="H6" s="1">
         <v>26</v>
       </c>
       <c r="I6" s="1">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1">
         <v>28</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>18</v>
       </c>
@@ -1556,26 +1671,28 @@
       <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1">
-        <v>13</v>
       </c>
       <c r="G7" s="1">
         <v>14</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>14</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -1585,32 +1702,34 @@
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>28</v>
-      </c>
-      <c r="G8" s="1">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1">
-        <v>27</v>
       </c>
       <c r="I8" s="1">
         <v>26</v>
       </c>
       <c r="J8" s="1">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1">
         <v>12</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>34</v>
       </c>
@@ -1620,36 +1739,38 @@
       <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>40</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>41</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>20</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>39</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>26</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>17</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>28</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>4</v>
       </c>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>35</v>
       </c>
@@ -1659,30 +1780,32 @@
       <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>34</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>35</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>21</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>36</v>
       </c>
@@ -1692,30 +1815,32 @@
       <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>36</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>37</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <v>38</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>37</v>
       </c>
@@ -1725,28 +1850,30 @@
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>7</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>8</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <v>12</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>38</v>
       </c>
@@ -1756,34 +1883,36 @@
       <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>12</v>
-      </c>
-      <c r="F13" s="1">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1">
-        <v>33</v>
       </c>
       <c r="H13" s="1">
         <v>26</v>
       </c>
       <c r="I13" s="1">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1">
+        <v>26</v>
+      </c>
+      <c r="K13" s="1">
         <v>17</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>28</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>3</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39</v>
       </c>
@@ -1793,26 +1922,28 @@
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E14" s="1">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1">
-        <v>25</v>
       </c>
       <c r="G14" s="1">
         <v>14</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="1">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1">
+        <v>14</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>50</v>
       </c>
@@ -1822,30 +1953,32 @@
       <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="1">
+      <c r="H15" s="1">
         <v>37</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>51</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
         <v>45</v>
       </c>
-      <c r="I15" s="1">
+      <c r="K15" s="1">
         <v>4</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>51</v>
       </c>
@@ -1855,30 +1988,32 @@
       <c r="C16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="1">
+      <c r="G16" s="1">
         <v>6</v>
       </c>
-      <c r="F16" s="1">
+      <c r="H16" s="1">
         <v>46</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>43</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
         <v>8</v>
       </c>
-      <c r="I16" s="1">
+      <c r="K16" s="1">
         <v>12</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:1023" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>52</v>
       </c>
@@ -1888,36 +2023,38 @@
       <c r="C17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="1">
+      <c r="G17" s="1">
         <v>12</v>
       </c>
-      <c r="F17" s="1">
+      <c r="H17" s="1">
         <v>26</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>41</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
         <v>33</v>
       </c>
-      <c r="I17" s="1">
+      <c r="K17" s="1">
         <v>26</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1">
         <v>17</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
         <v>43</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="1">
         <v>3</v>
       </c>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:1023" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:1025" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>53</v>
       </c>
@@ -1927,26 +2064,28 @@
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E18" s="1">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1">
-        <v>25</v>
       </c>
       <c r="G18" s="1">
         <v>14</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="1">
+        <v>25</v>
+      </c>
+      <c r="I18" s="1">
+        <v>14</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:1023" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>54</v>
       </c>
@@ -1956,36 +2095,38 @@
       <c r="C19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="1">
+      <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="F19" s="1">
+      <c r="H19" s="1">
         <v>43</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I19" s="1">
         <v>17</v>
       </c>
-      <c r="H19" s="1">
+      <c r="J19" s="1">
         <v>26</v>
       </c>
-      <c r="I19" s="1">
+      <c r="K19" s="1">
         <v>33</v>
       </c>
-      <c r="J19" s="1">
+      <c r="L19" s="1">
         <v>41</v>
       </c>
-      <c r="K19" s="1">
+      <c r="M19" s="1">
         <v>26</v>
       </c>
-      <c r="L19" s="1">
+      <c r="N19" s="1">
         <v>12</v>
       </c>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:1023" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:1025" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -1995,36 +2136,36 @@
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="1">
+      <c r="G20" s="1">
         <v>40</v>
       </c>
-      <c r="F20" s="1">
+      <c r="H20" s="1">
         <v>49</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>20</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
         <v>39</v>
       </c>
-      <c r="I20" s="1">
+      <c r="K20" s="1">
         <v>26</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>17</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="1">
         <v>43</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="1">
         <v>4</v>
       </c>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:1023" x14ac:dyDescent="0.3">
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:1025" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>56</v>
       </c>
@@ -2034,28 +2175,30 @@
       <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="1">
+      <c r="G21" s="1">
         <v>3</v>
       </c>
-      <c r="F21" s="1">
+      <c r="H21" s="1">
         <v>49</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
         <v>53</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J21" s="1">
         <v>4</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:1023" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:1025" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>57</v>
       </c>
@@ -2065,30 +2208,32 @@
       <c r="C22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="1">
+      <c r="G22" s="1">
         <v>6</v>
       </c>
-      <c r="F22" s="1">
+      <c r="H22" s="1">
         <v>46</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
         <v>49</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J22" s="1">
         <v>8</v>
       </c>
-      <c r="I22" s="1">
+      <c r="K22" s="1">
         <v>12</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:1023" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>58</v>
       </c>
@@ -2098,36 +2243,38 @@
       <c r="C23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
         <v>12</v>
       </c>
-      <c r="F23" s="1">
+      <c r="H23" s="1">
         <v>26</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I23" s="1">
         <v>47</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J23" s="1">
         <v>33</v>
       </c>
-      <c r="I23" s="1">
+      <c r="K23" s="1">
         <v>26</v>
       </c>
-      <c r="J23" s="1">
+      <c r="L23" s="1">
         <v>17</v>
       </c>
-      <c r="K23" s="1">
+      <c r="M23" s="1">
         <v>43</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="1">
         <v>3</v>
       </c>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:1023" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:1025" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>59</v>
       </c>
@@ -2137,26 +2284,28 @@
       <c r="C24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E24" s="1">
-        <v>14</v>
-      </c>
-      <c r="F24" s="1">
-        <v>25</v>
       </c>
       <c r="G24" s="1">
         <v>14</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="H24" s="1">
+        <v>25</v>
+      </c>
+      <c r="I24" s="1">
+        <v>14</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:1023" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>60</v>
       </c>
@@ -2166,36 +2315,38 @@
       <c r="C25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="1">
+      <c r="G25" s="1">
         <v>3</v>
       </c>
-      <c r="F25" s="1">
+      <c r="H25" s="1">
         <v>43</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I25" s="1">
         <v>17</v>
       </c>
-      <c r="H25" s="1">
+      <c r="J25" s="1">
         <v>26</v>
       </c>
-      <c r="I25" s="1">
+      <c r="K25" s="1">
         <v>33</v>
       </c>
-      <c r="J25" s="1">
+      <c r="L25" s="1">
         <v>47</v>
       </c>
-      <c r="K25" s="1">
+      <c r="M25" s="1">
         <v>26</v>
       </c>
-      <c r="L25" s="1">
+      <c r="N25" s="1">
         <v>12</v>
       </c>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:1023" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>61</v>
       </c>
@@ -2205,44 +2356,46 @@
       <c r="C26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
         <v>40</v>
       </c>
-      <c r="F26" s="1">
+      <c r="H26" s="1">
         <v>49</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>20</v>
       </c>
-      <c r="H26" s="1">
+      <c r="J26" s="1">
         <v>39</v>
       </c>
-      <c r="I26" s="1">
+      <c r="K26" s="1">
         <v>26</v>
       </c>
-      <c r="J26" s="1">
+      <c r="L26" s="1">
         <v>17</v>
       </c>
-      <c r="K26" s="1">
+      <c r="M26" s="1">
         <v>43</v>
       </c>
-      <c r="L26" s="1">
+      <c r="N26" s="1">
         <v>4</v>
       </c>
-      <c r="M26" s="7"/>
-      <c r="AMB26" s="7"/>
-      <c r="AMC26" s="7"/>
+      <c r="O26" s="7"/>
       <c r="AMD26" s="7"/>
       <c r="AME26" s="7"/>
       <c r="AMF26" s="7"/>
       <c r="AMG26" s="7"/>
       <c r="AMH26" s="7"/>
       <c r="AMI26" s="7"/>
-    </row>
-    <row r="27" spans="1:1023" x14ac:dyDescent="0.3">
+      <c r="AMJ26" s="7"/>
+      <c r="AMK26" s="7"/>
+    </row>
+    <row r="27" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>62</v>
       </c>
@@ -2252,128 +2405,473 @@
       <c r="C27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
         <v>3</v>
       </c>
-      <c r="F27" s="1">
+      <c r="H27" s="1">
         <v>52</v>
       </c>
-      <c r="G27" s="1">
+      <c r="I27" s="1">
         <v>53</v>
       </c>
-      <c r="H27" s="1">
+      <c r="J27" s="1">
         <v>4</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="AMB27" s="7"/>
-      <c r="AMC27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
       <c r="AMD27" s="7"/>
       <c r="AME27" s="7"/>
       <c r="AMF27" s="7"/>
       <c r="AMG27" s="7"/>
       <c r="AMH27" s="7"/>
       <c r="AMI27" s="7"/>
-    </row>
-    <row r="28" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="AMJ27" s="7"/>
+      <c r="AMK27" s="7"/>
+    </row>
+    <row r="28" spans="1:1025" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:1023" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="7"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="7"/>
-      <c r="AMB29" s="7"/>
-      <c r="AMC29" s="7"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="7"/>
       <c r="AMD29" s="7"/>
       <c r="AME29" s="7"/>
       <c r="AMF29" s="7"/>
       <c r="AMG29" s="7"/>
       <c r="AMH29" s="7"/>
       <c r="AMI29" s="7"/>
-    </row>
-    <row r="30" spans="1:1023" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="7"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="AMJ29" s="7"/>
+      <c r="AMK29" s="7"/>
+    </row>
+    <row r="30" spans="1:1025" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-      <c r="AMB30" s="7"/>
-      <c r="AMC30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
       <c r="AMD30" s="7"/>
       <c r="AME30" s="7"/>
       <c r="AMF30" s="7"/>
       <c r="AMG30" s="7"/>
       <c r="AMH30" s="7"/>
       <c r="AMI30" s="7"/>
-    </row>
-    <row r="31" spans="1:1023" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="7"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="AMJ30" s="7"/>
+      <c r="AMK30" s="7"/>
+    </row>
+    <row r="31" spans="1:1025" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="7"/>
-      <c r="AMB31" s="7"/>
-      <c r="AMC31" s="7"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="7"/>
       <c r="AMD31" s="7"/>
       <c r="AME31" s="7"/>
       <c r="AMF31" s="7"/>
       <c r="AMG31" s="7"/>
       <c r="AMH31" s="7"/>
       <c r="AMI31" s="7"/>
-    </row>
-    <row r="32" spans="1:1023" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="AMB32" s="7"/>
-      <c r="AMC32" s="7"/>
+      <c r="AMJ31" s="7"/>
+      <c r="AMK31" s="7"/>
+    </row>
+    <row r="32" spans="1:1025" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>67</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="AMD32" s="7"/>
       <c r="AME32" s="7"/>
       <c r="AMF32" s="7"/>
       <c r="AMG32" s="7"/>
       <c r="AMH32" s="7"/>
       <c r="AMI32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
+      <c r="AMJ32" s="7"/>
+      <c r="AMK32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
+        <v>68</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>69</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>70</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>71</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28">
+        <v>72</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28">
+        <v>73</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28">
+        <v>74</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28">
+        <v>75</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <v>76</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28">
+        <v>77</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28">
+        <v>78</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <v>79</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1.29</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28">
+        <v>80</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1.08</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2381,24 +2879,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMI163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="16.88671875" style="6"/>
-    <col min="5" max="5" width="22.44140625" style="6" customWidth="1"/>
-    <col min="6" max="7" width="16.88671875" style="6"/>
-    <col min="8" max="8" width="21.5546875" style="6" customWidth="1"/>
-    <col min="9" max="10" width="16.88671875" style="6"/>
-    <col min="11" max="11" width="16.88671875" style="7"/>
-    <col min="12" max="1020" width="16.88671875" style="6"/>
-    <col min="1021" max="16384" width="16.88671875" style="7"/>
+    <col min="1" max="4" width="16.85546875" style="6"/>
+    <col min="5" max="5" width="22.42578125" style="6" customWidth="1"/>
+    <col min="6" max="7" width="16.85546875" style="6"/>
+    <col min="8" max="8" width="21.5703125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="16.85546875" style="6"/>
+    <col min="11" max="11" width="16.85546875" style="7"/>
+    <col min="12" max="1020" width="16.85546875" style="6"/>
+    <col min="1021" max="16384" width="16.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1023" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2431,7 +2929,7 @@
       <c r="AMH1" s="7"/>
       <c r="AMI1" s="7"/>
     </row>
-    <row r="2" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2458,7 +2956,7 @@
       </c>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2486,7 +2984,7 @@
       </c>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2513,7 +3011,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2540,7 +3038,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:1023" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1023" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2567,7 +3065,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2594,7 +3092,7 @@
       </c>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:1023" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1023" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2621,7 +3119,7 @@
       </c>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:1023" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1023" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2648,7 +3146,7 @@
       </c>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:1023" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1023" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -2675,7 +3173,7 @@
       </c>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2702,7 +3200,7 @@
       </c>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2729,7 +3227,7 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:1023" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1023" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2756,7 +3254,7 @@
       </c>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2783,7 +3281,7 @@
       </c>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2810,7 +3308,7 @@
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:1023" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2837,7 +3335,7 @@
       </c>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -2864,7 +3362,7 @@
       </c>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2891,7 +3389,7 @@
       </c>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2918,7 +3416,7 @@
       </c>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2945,7 +3443,7 @@
       </c>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2972,7 +3470,7 @@
       </c>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -2999,7 +3497,7 @@
       </c>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:1020" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1020" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -4039,7 +4537,7 @@
       <c r="AME23" s="23"/>
       <c r="AMF23" s="23"/>
     </row>
-    <row r="24" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4066,7 +4564,7 @@
       </c>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4093,7 +4591,7 @@
       </c>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4120,7 +4618,7 @@
       </c>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4147,7 +4645,7 @@
       </c>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4174,7 +4672,7 @@
       </c>
       <c r="I28" s="19"/>
     </row>
-    <row r="29" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -4201,7 +4699,7 @@
       </c>
       <c r="I29" s="19"/>
     </row>
-    <row r="30" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4228,7 +4726,7 @@
       </c>
       <c r="I30" s="19"/>
     </row>
-    <row r="31" spans="1:1020" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1020" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>30</v>
       </c>
@@ -5268,7 +5766,7 @@
       <c r="AME31" s="23"/>
       <c r="AMF31" s="23"/>
     </row>
-    <row r="32" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -5295,7 +5793,7 @@
       </c>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:1020" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1020" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>32</v>
       </c>
@@ -6335,7 +6833,7 @@
       <c r="AME33" s="23"/>
       <c r="AMF33" s="23"/>
     </row>
-    <row r="34" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6362,7 +6860,7 @@
       </c>
       <c r="I34" s="19"/>
     </row>
-    <row r="35" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -6389,7 +6887,7 @@
       </c>
       <c r="I35" s="19"/>
     </row>
-    <row r="36" spans="1:1020" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1020" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>35</v>
       </c>
@@ -7428,7 +7926,7 @@
       <c r="AME36" s="23"/>
       <c r="AMF36" s="23"/>
     </row>
-    <row r="37" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7455,7 +7953,7 @@
       </c>
       <c r="I37" s="19"/>
     </row>
-    <row r="38" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7482,7 +7980,7 @@
       </c>
       <c r="I38" s="19"/>
     </row>
-    <row r="39" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7509,7 +8007,7 @@
       </c>
       <c r="I39" s="19"/>
     </row>
-    <row r="40" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7536,7 +8034,7 @@
       </c>
       <c r="I40" s="19"/>
     </row>
-    <row r="41" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7563,7 +8061,7 @@
       </c>
       <c r="I41" s="19"/>
     </row>
-    <row r="42" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7590,7 +8088,7 @@
       </c>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7617,7 +8115,7 @@
       </c>
       <c r="I43" s="19"/>
     </row>
-    <row r="44" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -7644,7 +8142,7 @@
       </c>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7671,7 +8169,7 @@
       </c>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7698,7 +8196,7 @@
       </c>
       <c r="I46" s="19"/>
     </row>
-    <row r="47" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7725,7 +8223,7 @@
       </c>
       <c r="I47" s="19"/>
     </row>
-    <row r="48" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7752,7 +8250,7 @@
       </c>
       <c r="I48" s="19"/>
     </row>
-    <row r="49" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7779,7 +8277,7 @@
       </c>
       <c r="I49" s="19"/>
     </row>
-    <row r="50" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7806,7 +8304,7 @@
       </c>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -7833,7 +8331,7 @@
       </c>
       <c r="I51" s="19"/>
     </row>
-    <row r="52" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7860,7 +8358,7 @@
       </c>
       <c r="I52" s="19"/>
     </row>
-    <row r="53" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7887,7 +8385,7 @@
       </c>
       <c r="I53" s="19"/>
     </row>
-    <row r="54" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7914,7 +8412,7 @@
       </c>
       <c r="I54" s="19"/>
     </row>
-    <row r="55" spans="1:1020" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1020" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>54</v>
       </c>
@@ -8953,250 +9451,250 @@
       <c r="AME55" s="23"/>
       <c r="AMF55" s="23"/>
     </row>
-    <row r="56" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
     </row>
-    <row r="61" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="B61" s="16"/>
     </row>
-    <row r="62" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:1020" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1020" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="16"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="16"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="15"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="15"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="15"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="15"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="15"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="15"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="15"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="15"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="15"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="15"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="15"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="15"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="15"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="15"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="15"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="15"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="15"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="15"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="15"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="15"/>
     </row>
   </sheetData>
@@ -9222,20 +9720,20 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="30.88671875" style="4"/>
+    <col min="1" max="1" width="3.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="30.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9261,7 +9759,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -9287,7 +9785,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -9313,7 +9811,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -9339,14 +9837,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
@@ -9358,21 +9856,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B4A72D35825A314C9EB5C5BDD49EC582" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ab3cfd4ffe88710ffd03436b1addd592">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0574b82-72ca-428d-96cb-9dbc44012ede" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb55e547d0e393e34c6bbb534eb78df0" ns3:_="">
     <xsd:import namespace="c0574b82-72ca-428d-96cb-9dbc44012ede"/>
@@ -9556,31 +10039,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8F108CF-CFD9-47FB-AD65-C74A1CC8D454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78A0EADE-0FE4-4B1A-A335-85BC59899BDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="c0574b82-72ca-428d-96cb-9dbc44012ede"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D81EF3F0-7775-4285-BFE0-18A3A29E794A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9596,4 +10070,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8F108CF-CFD9-47FB-AD65-C74A1CC8D454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78A0EADE-0FE4-4B1A-A335-85BC59899BDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="c0574b82-72ca-428d-96cb-9dbc44012ede"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/eureca_ubem/Input/materials_and_construction_test.xlsx
+++ b/eureca_ubem/Input/materials_and_construction_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratenr82256\Desktop\eureca-ubem\eureca_ubem\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\PNRR\8.4.7\Eureca\EUReCA\eureca_ubem\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA754F-F9D7-4913-A623-591366E0DAC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF99D88-D811-42BA-B657-3786B868A73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="225" windowWidth="17985" windowHeight="10440" tabRatio="823" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Envelopes" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <definedName name="Windows" localSheetId="4">Windows!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -391,15 +402,9 @@
     <t>Brick blocks ad external high insulation (2-30-15-2)</t>
   </si>
   <si>
-    <t>1945-1960</t>
-  </si>
-  <si>
     <t>1981-1990</t>
   </si>
   <si>
-    <t>2005-2010</t>
-  </si>
-  <si>
     <t>Air gap with insulation (4cm)</t>
   </si>
   <si>
@@ -509,6 +514,12 @@
   </si>
   <si>
     <t>Heavy</t>
+  </si>
+  <si>
+    <t>1961-1970</t>
+  </si>
+  <si>
+    <t>1971-1980</t>
   </si>
 </sst>
 </file>
@@ -1082,24 +1093,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="7" customWidth="1"/>
-    <col min="2" max="5" width="12.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="1014" width="8.5703125" style="7"/>
-    <col min="1015" max="1024" width="9.140625" style="7" customWidth="1"/>
-    <col min="1025" max="16384" width="8.5703125" style="7"/>
+    <col min="1" max="1" width="16.33203125" style="7" customWidth="1"/>
+    <col min="2" max="5" width="12.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="7" customWidth="1"/>
+    <col min="9" max="1014" width="8.5546875" style="7"/>
+    <col min="1015" max="1024" width="9.109375" style="7" customWidth="1"/>
+    <col min="1025" max="16384" width="8.5546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1138,15 +1149,15 @@
       <c r="AMJ1" s="7"/>
       <c r="AMK1" s="7"/>
     </row>
-    <row r="2" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D2" s="8">
         <v>13</v>
@@ -1177,15 +1188,15 @@
       <c r="AMJ2" s="7"/>
       <c r="AMK2" s="7"/>
     </row>
-    <row r="3" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="D3" s="8">
         <v>34</v>
@@ -1216,15 +1227,15 @@
       <c r="AMJ3" s="7"/>
       <c r="AMK3" s="7"/>
     </row>
-    <row r="4" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="8">
         <v>55</v>
@@ -1255,7 +1266,7 @@
       <c r="AMJ4" s="7"/>
       <c r="AMK4" s="7"/>
     </row>
-    <row r="5" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1276,7 +1287,7 @@
       <c r="AMJ5" s="7"/>
       <c r="AMK5" s="7"/>
     </row>
-    <row r="6" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="AMA6" s="7"/>
       <c r="AMB6" s="7"/>
       <c r="AMC6" s="7"/>
@@ -1288,7 +1299,7 @@
       <c r="AMI6" s="7"/>
       <c r="AMJ6" s="7"/>
     </row>
-    <row r="7" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="AMA7" s="7"/>
       <c r="AMB7" s="7"/>
       <c r="AMC7" s="7"/>
@@ -1300,7 +1311,7 @@
       <c r="AMI7" s="7"/>
       <c r="AMJ7" s="7"/>
     </row>
-    <row r="8" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1025" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="AMA8" s="7"/>
       <c r="AMB8" s="7"/>
       <c r="AMC8" s="7"/>
@@ -1312,7 +1323,7 @@
       <c r="AMI8" s="7"/>
       <c r="AMJ8" s="7"/>
     </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1322,7 +1333,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1332,16 +1343,16 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
     </row>
   </sheetData>
@@ -1359,12 +1370,12 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1380,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1388,7 +1399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1396,7 +1407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1404,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1422,23 +1433,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="21.140625" style="6" customWidth="1"/>
-    <col min="6" max="15" width="13.28515625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="1025" width="9.140625" style="6"/>
-    <col min="1026" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="5" width="21.109375" style="6" customWidth="1"/>
+    <col min="6" max="15" width="13.33203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="6" customWidth="1"/>
+    <col min="17" max="1025" width="9.109375" style="6"/>
+    <col min="1026" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1449,10 +1460,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>9</v>
@@ -1488,7 +1499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>13</v>
       </c>
@@ -1525,7 +1536,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>14</v>
       </c>
@@ -1560,7 +1571,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -1591,7 +1602,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -1624,7 +1635,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>17</v>
       </c>
@@ -1661,7 +1672,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>18</v>
       </c>
@@ -1692,7 +1703,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -1729,7 +1740,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>34</v>
       </c>
@@ -1770,7 +1781,7 @@
       </c>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>35</v>
       </c>
@@ -1805,7 +1816,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>36</v>
       </c>
@@ -1840,7 +1851,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:16" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>37</v>
       </c>
@@ -1873,7 +1884,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>38</v>
       </c>
@@ -1912,7 +1923,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>39</v>
       </c>
@@ -1943,7 +1954,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>50</v>
       </c>
@@ -1978,7 +1989,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>51</v>
       </c>
@@ -2013,7 +2024,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1025" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>52</v>
       </c>
@@ -2054,7 +2065,7 @@
       </c>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:1025" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1025" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>53</v>
       </c>
@@ -2085,7 +2096,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1025" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>54</v>
       </c>
@@ -2126,7 +2137,7 @@
       </c>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:1025" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1025" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>55</v>
       </c>
@@ -2165,7 +2176,7 @@
       </c>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:1025" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1025" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>56</v>
       </c>
@@ -2198,7 +2209,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:1025" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1025" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>57</v>
       </c>
@@ -2233,7 +2244,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1025" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>58</v>
       </c>
@@ -2274,7 +2285,7 @@
       </c>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:1025" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1025" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>59</v>
       </c>
@@ -2305,7 +2316,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:1025" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1025" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>60</v>
       </c>
@@ -2346,7 +2357,7 @@
       </c>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:1025" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1025" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>61</v>
       </c>
@@ -2395,7 +2406,7 @@
       <c r="AMJ26" s="7"/>
       <c r="AMK26" s="7"/>
     </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>62</v>
       </c>
@@ -2436,12 +2447,12 @@
       <c r="AMJ27" s="7"/>
       <c r="AMK27" s="7"/>
     </row>
-    <row r="28" spans="1:1025" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1025" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
         <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
@@ -2450,7 +2461,7 @@
         <v>2.6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>22</v>
@@ -2460,12 +2471,12 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
         <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>5</v>
@@ -2474,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>22</v>
@@ -2497,12 +2508,12 @@
       <c r="AMJ29" s="7"/>
       <c r="AMK29" s="7"/>
     </row>
-    <row r="30" spans="1:1025" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1025" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
         <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>3</v>
@@ -2511,7 +2522,7 @@
         <v>2.9</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>22</v>
@@ -2534,12 +2545,12 @@
       <c r="AMJ30" s="7"/>
       <c r="AMK30" s="7"/>
     </row>
-    <row r="31" spans="1:1025" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1025" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28">
         <v>66</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>3</v>
@@ -2548,7 +2559,7 @@
         <v>0.88</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>22</v>
@@ -2571,12 +2582,12 @@
       <c r="AMJ31" s="7"/>
       <c r="AMK31" s="7"/>
     </row>
-    <row r="32" spans="1:1025" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1025" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
         <v>67</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>2</v>
@@ -2585,7 +2596,7 @@
         <v>1.3</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>22</v>
@@ -2599,12 +2610,12 @@
       <c r="AMJ32" s="7"/>
       <c r="AMK32" s="7"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28">
         <v>68</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>5</v>
@@ -2613,18 +2624,18 @@
         <v>1.7</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28">
         <v>69</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>2</v>
@@ -2633,18 +2644,18 @@
         <v>0.77</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
         <v>70</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>5</v>
@@ -2653,18 +2664,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
         <v>71</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>3</v>
@@ -2673,18 +2684,18 @@
         <v>0.88</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
         <v>72</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>2</v>
@@ -2693,18 +2704,18 @@
         <v>1.4</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
         <v>73</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>3</v>
@@ -2713,18 +2724,18 @@
         <v>0.77</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28">
         <v>74</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>2</v>
@@ -2733,18 +2744,18 @@
         <v>0.65</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
         <v>75</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>5</v>
@@ -2753,18 +2764,18 @@
         <v>1.4</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28">
         <v>76</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>2</v>
@@ -2773,18 +2784,18 @@
         <v>1.4</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
         <v>77</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>3</v>
@@ -2793,18 +2804,18 @@
         <v>0.78</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28">
         <v>78</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>5</v>
@@ -2813,18 +2824,18 @@
         <v>1</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28">
         <v>79</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>3</v>
@@ -2833,18 +2844,18 @@
         <v>1.29</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28">
         <v>80</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>2</v>
@@ -2853,19 +2864,19 @@
         <v>1.08</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
     </row>
   </sheetData>
@@ -2884,19 +2895,19 @@
       <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.85546875" style="6"/>
-    <col min="5" max="5" width="22.42578125" style="6" customWidth="1"/>
-    <col min="6" max="7" width="16.85546875" style="6"/>
-    <col min="8" max="8" width="21.5703125" style="6" customWidth="1"/>
-    <col min="9" max="10" width="16.85546875" style="6"/>
-    <col min="11" max="11" width="16.85546875" style="7"/>
-    <col min="12" max="1020" width="16.85546875" style="6"/>
-    <col min="1021" max="16384" width="16.85546875" style="7"/>
+    <col min="1" max="4" width="16.88671875" style="6"/>
+    <col min="5" max="5" width="22.44140625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="16.88671875" style="6"/>
+    <col min="8" max="8" width="21.5546875" style="6" customWidth="1"/>
+    <col min="9" max="10" width="16.88671875" style="6"/>
+    <col min="11" max="11" width="16.88671875" style="7"/>
+    <col min="12" max="1020" width="16.88671875" style="6"/>
+    <col min="1021" max="16384" width="16.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1023" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2904,32 +2915,32 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="K1" s="1"/>
       <c r="AMG1" s="7"/>
       <c r="AMH1" s="7"/>
       <c r="AMI1" s="7"/>
     </row>
-    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2956,7 +2967,7 @@
       </c>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2984,7 +2995,7 @@
       </c>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3011,7 +3022,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3038,7 +3049,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:1023" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1023" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3065,7 +3076,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3092,7 +3103,7 @@
       </c>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:1023" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1023" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3119,7 +3130,7 @@
       </c>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:1023" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1023" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3146,7 +3157,7 @@
       </c>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:1023" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1023" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -3173,7 +3184,7 @@
       </c>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3200,7 +3211,7 @@
       </c>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3227,7 +3238,7 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:1023" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1023" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3254,7 +3265,7 @@
       </c>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3281,7 +3292,7 @@
       </c>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3308,7 +3319,7 @@
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3335,7 +3346,7 @@
       </c>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -3362,7 +3373,7 @@
       </c>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3389,7 +3400,7 @@
       </c>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3416,7 +3427,7 @@
       </c>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3443,7 +3454,7 @@
       </c>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3470,7 +3481,7 @@
       </c>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -3497,7 +3508,7 @@
       </c>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:1020" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1020" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -3505,7 +3516,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D23" s="22">
         <v>0.05</v>
@@ -4537,7 +4548,7 @@
       <c r="AME23" s="23"/>
       <c r="AMF23" s="23"/>
     </row>
-    <row r="24" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4564,7 +4575,7 @@
       </c>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4591,7 +4602,7 @@
       </c>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4618,7 +4629,7 @@
       </c>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4645,7 +4656,7 @@
       </c>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4672,7 +4683,7 @@
       </c>
       <c r="I28" s="19"/>
     </row>
-    <row r="29" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -4699,7 +4710,7 @@
       </c>
       <c r="I29" s="19"/>
     </row>
-    <row r="30" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4726,7 +4737,7 @@
       </c>
       <c r="I30" s="19"/>
     </row>
-    <row r="31" spans="1:1020" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1020" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>30</v>
       </c>
@@ -4734,7 +4745,7 @@
         <v>46</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D31" s="27">
         <v>0.08</v>
@@ -5766,7 +5777,7 @@
       <c r="AME31" s="23"/>
       <c r="AMF31" s="23"/>
     </row>
-    <row r="32" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -5793,7 +5804,7 @@
       </c>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:1020" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1020" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>32</v>
       </c>
@@ -5801,7 +5812,7 @@
         <v>48</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D33" s="27">
         <v>0.06</v>
@@ -6833,7 +6844,7 @@
       <c r="AME33" s="23"/>
       <c r="AMF33" s="23"/>
     </row>
-    <row r="34" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6860,7 +6871,7 @@
       </c>
       <c r="I34" s="19"/>
     </row>
-    <row r="35" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -6887,7 +6898,7 @@
       </c>
       <c r="I35" s="19"/>
     </row>
-    <row r="36" spans="1:1020" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1020" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>35</v>
       </c>
@@ -6895,7 +6906,7 @@
         <v>51</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="27">
         <v>0.02</v>
@@ -7926,7 +7937,7 @@
       <c r="AME36" s="23"/>
       <c r="AMF36" s="23"/>
     </row>
-    <row r="37" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7953,7 +7964,7 @@
       </c>
       <c r="I37" s="19"/>
     </row>
-    <row r="38" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7980,7 +7991,7 @@
       </c>
       <c r="I38" s="19"/>
     </row>
-    <row r="39" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8007,7 +8018,7 @@
       </c>
       <c r="I39" s="19"/>
     </row>
-    <row r="40" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8034,7 +8045,7 @@
       </c>
       <c r="I40" s="19"/>
     </row>
-    <row r="41" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8061,7 +8072,7 @@
       </c>
       <c r="I41" s="19"/>
     </row>
-    <row r="42" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8088,7 +8099,7 @@
       </c>
       <c r="I42" s="19"/>
     </row>
-    <row r="43" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8115,7 +8126,7 @@
       </c>
       <c r="I43" s="19"/>
     </row>
-    <row r="44" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -8142,7 +8153,7 @@
       </c>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8169,7 +8180,7 @@
       </c>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8196,7 +8207,7 @@
       </c>
       <c r="I46" s="19"/>
     </row>
-    <row r="47" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8223,7 +8234,7 @@
       </c>
       <c r="I47" s="19"/>
     </row>
-    <row r="48" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8250,7 +8261,7 @@
       </c>
       <c r="I48" s="19"/>
     </row>
-    <row r="49" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8277,7 +8288,7 @@
       </c>
       <c r="I49" s="19"/>
     </row>
-    <row r="50" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8304,7 +8315,7 @@
       </c>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -8331,7 +8342,7 @@
       </c>
       <c r="I51" s="19"/>
     </row>
-    <row r="52" spans="1:1020" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1020" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8358,7 +8369,7 @@
       </c>
       <c r="I52" s="19"/>
     </row>
-    <row r="53" spans="1:1020" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1020" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8385,7 +8396,7 @@
       </c>
       <c r="I53" s="19"/>
     </row>
-    <row r="54" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8412,15 +8423,15 @@
       </c>
       <c r="I54" s="19"/>
     </row>
-    <row r="55" spans="1:1020" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1020" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="22">
         <v>54</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D55" s="27">
         <v>0.04</v>
@@ -9451,250 +9462,250 @@
       <c r="AME55" s="23"/>
       <c r="AMF55" s="23"/>
     </row>
-    <row r="56" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="B60" s="16"/>
     </row>
-    <row r="61" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="B61" s="16"/>
     </row>
-    <row r="62" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:1020" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1020" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="16"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="16"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="15"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="15"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="15"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="15"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="15"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="15"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="15"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="15"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="15"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="15"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="15"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="15"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="15"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="15"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="15"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="15"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="15"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="15"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="15"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="15"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="15"/>
     </row>
   </sheetData>
@@ -9720,20 +9731,20 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="30.85546875" style="4"/>
+    <col min="1" max="1" width="3.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="30.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9741,25 +9752,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -9785,7 +9796,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -9811,7 +9822,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -9837,14 +9848,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
@@ -9856,6 +9867,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B4A72D35825A314C9EB5C5BDD49EC582" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ab3cfd4ffe88710ffd03436b1addd592">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0574b82-72ca-428d-96cb-9dbc44012ede" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb55e547d0e393e34c6bbb534eb78df0" ns3:_="">
     <xsd:import namespace="c0574b82-72ca-428d-96cb-9dbc44012ede"/>
@@ -10039,22 +10065,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78A0EADE-0FE4-4B1A-A335-85BC59899BDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="c0574b82-72ca-428d-96cb-9dbc44012ede"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8F108CF-CFD9-47FB-AD65-C74A1CC8D454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D81EF3F0-7775-4285-BFE0-18A3A29E794A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10070,28 +10105,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8F108CF-CFD9-47FB-AD65-C74A1CC8D454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78A0EADE-0FE4-4B1A-A335-85BC59899BDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="c0574b82-72ca-428d-96cb-9dbc44012ede"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>